--- a/solidity_static_analysis_tool/code4rena_project_detect_result.xlsx
+++ b/solidity_static_analysis_tool/code4rena_project_detect_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silu/Documents/sola_documents/zan_open_github/release/PublicStatistics/solidity_static_analysis_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2915D2EB-A256-AD41-88EC-D39BFC2AE24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F955924-D4C8-AF4A-BF75-E8DA588BB323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{C596B199-A9B5-F44F-B9D2-278D83954B15}"/>
+    <workbookView xWindow="-26940" yWindow="6760" windowWidth="25600" windowHeight="15500" xr2:uid="{C596B199-A9B5-F44F-B9D2-278D83954B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>H11 L-05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>H-11 L-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   </si>
   <si>
     <t>L-01 L-05 L-06 N-09 N-10 N-28 G-13 G-15 G-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11 L-05 L-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -980,9 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FE8FD-4056-9F47-83EF-F5254FD3E45C}">
   <dimension ref="A1:AC193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -993,32 +993,32 @@
   <sheetData>
     <row r="1" spans="1:29" ht="30" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="50" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="29"/>
       <c r="K2" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="29"/>
       <c r="O2" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="28"/>
@@ -1037,55 +1037,55 @@
     </row>
     <row r="3" spans="1:29" ht="50" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="2"/>
@@ -1211,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="15" t="s">
         <v>4</v>
@@ -1842,19 +1842,19 @@
         <v>5</v>
       </c>
       <c r="M15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="14">
         <v>1</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="4"/>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>15</v>
@@ -1978,13 +1978,13 @@
         <v>2</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="4"/>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>20</v>
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>25</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="31" spans="1:29" ht="30" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="18">
@@ -2870,7 +2870,7 @@
         <v>143</v>
       </c>
       <c r="M31" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N31" s="18">
         <v>41</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -2915,7 +2915,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="22">
-        <v>0.43359999999999999</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="N32" s="22">
         <v>0.28670000000000001</v>
